--- a/GeneDataAnalysis/50GenesRenalCancer.xlsx
+++ b/GeneDataAnalysis/50GenesRenalCancer.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenny/Desktop/BioDataAnalysis/GeneDataAnalysis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24426"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="640" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="58">
   <si>
     <t>Cancer Name</t>
   </si>
@@ -195,16 +190,35 @@
   </si>
   <si>
     <t>P value</t>
+  </si>
+  <si>
+    <t>Chromosome 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,14 +241,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="25">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -290,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -325,7 +387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -502,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -556,7 +618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -595,11 +657,9 @@
         <f>F2/D2*100</f>
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>9.2049999999999999E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -638,11 +698,9 @@
         <f t="shared" ref="K3:K109" si="4">F3/D3*100</f>
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <v>3.925E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -681,11 +739,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.75900000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -724,11 +779,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -767,11 +819,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>0.51400000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -811,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -851,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -891,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -931,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -971,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1011,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1050,8 +1099,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="M13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1090,8 +1145,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1131,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1171,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1211,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1251,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1331,7 +1392,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1371,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1411,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1512,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1491,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1531,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1611,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1651,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1691,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1731,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1811,7 +1872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1850,8 +1911,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="M33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1890,8 +1957,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>0.214</v>
+      </c>
+      <c r="M34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1970,8 +2043,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -2010,8 +2089,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="M37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -2051,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -2091,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2131,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2210,8 +2295,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>0.93</v>
+      </c>
+      <c r="M42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2250,8 +2341,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>0.505</v>
+      </c>
+      <c r="M43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2291,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2331,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2371,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2410,8 +2507,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>0.82</v>
+      </c>
+      <c r="M47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2450,8 +2553,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="M48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2491,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2531,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2570,8 +2679,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>0.32</v>
+      </c>
+      <c r="M51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2610,8 +2725,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>0.313</v>
+      </c>
+      <c r="M52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -2651,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -2691,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -2731,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -2771,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -2811,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2851,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -2891,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -2931,7 +3052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -2971,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -3011,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3050,8 +3171,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="M63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3090,8 +3217,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="M64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3131,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3171,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -3211,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -3251,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -3291,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3331,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -3371,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -3411,7 +3544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -3451,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -3491,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -3531,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -3570,8 +3703,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>44</v>
       </c>
@@ -3610,8 +3749,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>0.372</v>
+      </c>
+      <c r="M77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -3651,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -3690,8 +3835,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="M79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -3730,8 +3881,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="M80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -3771,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>46</v>
       </c>
@@ -3811,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -3851,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -3891,7 +4048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -3930,8 +4087,14 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="M85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -3970,8 +4133,14 @@
         <f t="shared" si="4"/>
         <v>1.7857142857142856</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="M86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -4011,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -4051,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -4091,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -4131,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -4171,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -4211,7 +4380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -4251,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -4291,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -4331,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -4371,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -4411,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -4450,8 +4619,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="M98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -4490,8 +4665,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -4531,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -4571,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -4611,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>53</v>
       </c>
@@ -4651,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>54</v>
       </c>
@@ -4691,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -4731,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -4771,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>55</v>
       </c>
@@ -4811,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -4851,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>55</v>
       </c>
@@ -4893,5 +5074,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/GeneDataAnalysis/50GenesRenalCancer.xlsx
+++ b/GeneDataAnalysis/50GenesRenalCancer.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenny/Desktop/BioDataAnalysis/GeneDataAnalysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="7280" windowWidth="26640" windowHeight="15880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -564,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,13 +579,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -618,7 +623,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -659,7 +664,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -700,7 +705,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -740,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -780,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -820,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -860,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -900,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -940,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -980,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1020,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1106,7 +1111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1152,7 +1157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1352,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1392,7 +1397,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1552,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1872,7 +1877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -2096,7 +2101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -2136,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -2176,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2216,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2348,7 +2353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2468,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2560,7 +2565,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2600,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2639,8 +2644,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="L50">
+        <v>0.32</v>
+      </c>
+      <c r="M50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2680,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0.32</v>
+        <v>0.313</v>
       </c>
       <c r="M51" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2725,14 +2736,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L52">
-        <v>0.313</v>
-      </c>
-      <c r="M52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -2772,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -2892,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -2932,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2972,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -3012,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -3052,7 +3057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -3092,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -3132,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3178,7 +3183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3264,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3304,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -3424,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3464,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -3504,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -3544,7 +3549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -3584,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -3624,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -3664,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -3710,7 +3715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>44</v>
       </c>
@@ -3756,7 +3761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -3888,7 +3893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -3928,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>46</v>
       </c>
@@ -3968,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -4008,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -4094,7 +4099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -4140,7 +4145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -4180,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -4260,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -4300,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -4340,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -4380,7 +4385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -4420,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -4460,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -4500,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -4540,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -4580,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -4626,7 +4631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -4672,7 +4677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -4712,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -4752,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -4792,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>53</v>
       </c>
@@ -4832,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>54</v>
       </c>
@@ -4872,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -4912,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -4952,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>55</v>
       </c>
@@ -4992,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>55</v>
       </c>
@@ -5075,10 +5080,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>